--- a/lin_R1_by_R2 (1 by 3)100.xlsx
+++ b/lin_R1_by_R2 (1 by 3)100.xlsx
@@ -224,6 +224,86 @@
         <v>-0.08000413488048869</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -397,6 +477,86 @@
         <v>-0.08020129447158703</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -570,6 +730,86 @@
         <v>-0.08022993385760803</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -743,6 +983,86 @@
         <v>-0.0800001495728623</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (1 by 3)100.xlsx
+++ b/lin_R1_by_R2 (1 by 3)100.xlsx
@@ -66,73 +66,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9712002356655235</v>
+        <v>0.8952425311134611</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9555130142371806</v>
+        <v>0.8482595147276366</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9322147929656552</v>
+        <v>0.7882768803050128</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8987530895597124</v>
+        <v>0.7176606392137819</v>
       </c>
       <c r="E1" t="n">
-        <v>0.852923561479013</v>
+        <v>0.6417795664728592</v>
       </c>
       <c r="F1" t="n">
-        <v>0.794036955848253</v>
+        <v>0.5673072660551965</v>
       </c>
       <c r="G1" t="n">
-        <v>0.7241779701939824</v>
+        <v>0.4995427970259025</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6484927954767582</v>
+        <v>0.44073583850300246</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5736468442484424</v>
+        <v>0.39039938246423933</v>
       </c>
       <c r="J1" t="n">
-        <v>0.5051543724839341</v>
+        <v>0.34682544519638625</v>
       </c>
       <c r="K1" t="n">
-        <v>0.44554831052298205</v>
+        <v>0.3084518450013106</v>
       </c>
       <c r="L1" t="n">
-        <v>0.39452907534698917</v>
+        <v>0.2743564595607412</v>
       </c>
       <c r="M1" t="n">
-        <v>0.35043130400291733</v>
+        <v>0.24404715663118437</v>
       </c>
       <c r="N1" t="n">
-        <v>0.31164635558036063</v>
+        <v>0.21713891033583008</v>
       </c>
       <c r="O1" t="n">
-        <v>0.27719793901267653</v>
+        <v>0.193249368635337</v>
       </c>
       <c r="P1" t="n">
-        <v>0.24657119582257453</v>
+        <v>0.17202616567203421</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.2193792575843712</v>
+        <v>0.1531623935530383</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19523897961192055</v>
+        <v>0.1363893299200625</v>
       </c>
       <c r="S1" t="n">
-        <v>0.1737941791205041</v>
+        <v>0.12147009519331375</v>
       </c>
       <c r="T1" t="n">
-        <v>0.1547341443669754</v>
+        <v>0.1081957518409495</v>
       </c>
       <c r="U1" t="n">
-        <v>0.13778711464735405</v>
+        <v>0.09638181561502694</v>
       </c>
       <c r="V1" t="n">
-        <v>0.12271357606937426</v>
+        <v>0.08586520738820583</v>
       </c>
       <c r="W1" t="n">
-        <v>0.10930227856903629</v>
+        <v>0.0765016210587196</v>
       </c>
       <c r="X1" t="n">
         <v>0.09736671592620691</v>
@@ -146,73 +146,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.02351961398136</v>
+        <v>-1.1777140148648273</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.6683679668335714</v>
+        <v>-1.0272486059602344</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.3975102604132168</v>
+        <v>-0.9107360165192567</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.1930650146475812</v>
+        <v>-0.814817965800925</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.0389116317736793</v>
+        <v>-0.729446641896243</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.9199814327348802</v>
+        <v>-0.6493918192352908</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8227167797575471</v>
+        <v>-0.5739315971017177</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7367022651641265</v>
+        <v>-0.50466961888424</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6562628764655803</v>
+        <v>-0.4431173001556561</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5803490829679324</v>
+        <v>-0.3895120178563121</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5104670661012402</v>
+        <v>-0.3430097787154836</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4482067055599519</v>
+        <v>-0.30245666735697885</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3939256033497488</v>
+        <v>-0.2669144144494977</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.34684550032457107</v>
+        <v>-0.23571054150263704</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.3058113537982533</v>
+        <v>-0.20830199930217674</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.26985823107425005</v>
+        <v>-0.18420784318673888</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.23829562727195783</v>
+        <v>-0.16300648055028927</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.21057335732505528</v>
+        <v>-0.14433327828163958</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.18620545571896702</v>
+        <v>-0.1278722138401497</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.164765035011621</v>
+        <v>-0.11334888540998445</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.1458827807966624</v>
+        <v>-0.1005248024087388</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.12923870328210205</v>
+        <v>-0.0891924481177826</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.11455498061724358</v>
+        <v>-0.07917104167670164</v>
       </c>
       <c r="X2" t="n">
         <v>-0.10159017230873006</v>
@@ -226,73 +226,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -319,73 +319,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0160721221017888</v>
+        <v>1.0340153469105116</v>
       </c>
       <c r="B1" t="n">
-        <v>1.0230022992613679</v>
+        <v>1.0211843197276484</v>
       </c>
       <c r="C1" t="n">
-        <v>1.0304494896786056</v>
+        <v>0.9732291168432353</v>
       </c>
       <c r="D1" t="n">
-        <v>1.0341591692489094</v>
+        <v>0.8747220437420156</v>
       </c>
       <c r="E1" t="n">
-        <v>1.0234060069925959</v>
+        <v>0.7377764098902373</v>
       </c>
       <c r="F1" t="n">
-        <v>0.9793773677182204</v>
+        <v>0.6001565097738867</v>
       </c>
       <c r="G1" t="n">
-        <v>0.8853605666493118</v>
+        <v>0.4906366143399514</v>
       </c>
       <c r="H1" t="n">
-        <v>0.7504405002225341</v>
+        <v>0.41391886064612904</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6113733639907057</v>
+        <v>0.36194000849151925</v>
       </c>
       <c r="J1" t="n">
-        <v>0.4988897489595765</v>
+        <v>0.3248526925092053</v>
       </c>
       <c r="K1" t="n">
-        <v>0.4195253319100176</v>
+        <v>0.2948631228816016</v>
       </c>
       <c r="L1" t="n">
-        <v>0.36578156613032065</v>
+        <v>0.2671228859420328</v>
       </c>
       <c r="M1" t="n">
-        <v>0.32773588390416786</v>
+        <v>0.24001277228204848</v>
       </c>
       <c r="N1" t="n">
-        <v>0.29736279101790675</v>
+        <v>0.21427128501794993</v>
       </c>
       <c r="O1" t="n">
-        <v>0.26953552245114193</v>
+        <v>0.1909715802321867</v>
       </c>
       <c r="P1" t="n">
-        <v>0.24236170964048573</v>
+        <v>0.17031110526651191</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.2164480071204435</v>
+        <v>0.15193182190078458</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19291195588130383</v>
+        <v>0.13550663039636376</v>
       </c>
       <c r="S1" t="n">
-        <v>0.17203091995849376</v>
+        <v>0.12083300223558</v>
       </c>
       <c r="T1" t="n">
-        <v>0.15346653257915496</v>
+        <v>0.10773661893017798</v>
       </c>
       <c r="U1" t="n">
-        <v>0.1368785980582998</v>
+        <v>0.09605146042975125</v>
       </c>
       <c r="V1" t="n">
-        <v>0.12205793687430758</v>
+        <v>0.08562776547291868</v>
       </c>
       <c r="W1" t="n">
-        <v>0.10882968401087821</v>
+        <v>0.07633115498931764</v>
       </c>
       <c r="X1" t="n">
         <v>0.09702664153907703</v>
@@ -399,73 +399,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.9517102511549447</v>
+        <v>-1.1128104240095105</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.588735532063419</v>
+        <v>-1.000431489073688</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.3170418950712</v>
+        <v>-0.9450436212868851</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.126009379456409</v>
+        <v>-0.9135975539195162</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.0077103559622294</v>
+        <v>-0.8641477485947427</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.9483340092213023</v>
+        <v>-0.7793249364522488</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.9165480660593724</v>
+        <v>-0.6740732198986735</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.869939665307907</v>
+        <v>-0.5702217985541487</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7879519352660791</v>
+        <v>-0.4803646270605106</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.6835434852929398</v>
+        <v>-0.408119767406691</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5789040688133764</v>
+        <v>-0.35200578567415314</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.48756962516360186</v>
+        <v>-0.30800345900288423</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.41378264167686496</v>
+        <v>-0.27157557579835345</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3563875128316181</v>
+        <v>-0.23966556284453364</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.311509514344564</v>
+        <v>-0.21126915337613028</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.2745699809003993</v>
+        <v>-0.1862845361957615</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2423276147652649</v>
+        <v>-0.1644684470282353</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.21362911429804227</v>
+        <v>-0.14537867884363423</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.1883493572006324</v>
+        <v>-0.12861884625757358</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.16627148847134735</v>
+        <v>-0.11388066097349647</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.14695937464859093</v>
+        <v>-0.10090329521790363</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.13000789757377054</v>
+        <v>-0.08946164051410348</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.11510288682360993</v>
+        <v>-0.07936236243209728</v>
       </c>
       <c r="X2" t="n">
         <v>-0.10198016736431093</v>
@@ -479,73 +479,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -572,73 +572,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.3244811428156147</v>
+        <v>1.3629061631120025</v>
       </c>
       <c r="B1" t="n">
-        <v>1.3494557489884436</v>
+        <v>1.2549947035333964</v>
       </c>
       <c r="C1" t="n">
-        <v>1.372805741532409</v>
+        <v>1.0184625667022411</v>
       </c>
       <c r="D1" t="n">
-        <v>1.3666981502569764</v>
+        <v>0.7518026219012242</v>
       </c>
       <c r="E1" t="n">
-        <v>1.2699911373409998</v>
+        <v>0.5627027733236952</v>
       </c>
       <c r="F1" t="n">
-        <v>1.042658356957808</v>
+        <v>0.45605550478781964</v>
       </c>
       <c r="G1" t="n">
-        <v>0.772940976687364</v>
+        <v>0.39905642925128115</v>
       </c>
       <c r="H1" t="n">
-        <v>0.5755974495472295</v>
+        <v>0.36700434570055124</v>
       </c>
       <c r="I1" t="n">
-        <v>0.4629838482615625</v>
+        <v>0.3456347928977829</v>
       </c>
       <c r="J1" t="n">
-        <v>0.402799449461087</v>
+        <v>0.3257749425989452</v>
       </c>
       <c r="K1" t="n">
-        <v>0.36923615363715734</v>
+        <v>0.30126606107153947</v>
       </c>
       <c r="L1" t="n">
-        <v>0.3473405694222973</v>
+        <v>0.2711131818851773</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3276445285136571</v>
+        <v>0.24010332554256894</v>
       </c>
       <c r="N1" t="n">
-        <v>0.3036822253671231</v>
+        <v>0.2129245952973657</v>
       </c>
       <c r="O1" t="n">
-        <v>0.2738914331356876</v>
+        <v>0.1900428750083351</v>
       </c>
       <c r="P1" t="n">
-        <v>0.2427168727381826</v>
+        <v>0.16992033443457724</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.21512452496214812</v>
+        <v>0.15170744307691703</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19192334332656424</v>
+        <v>0.13532946825776218</v>
       </c>
       <c r="S1" t="n">
-        <v>0.17160948037614515</v>
+        <v>0.1207064844118767</v>
       </c>
       <c r="T1" t="n">
-        <v>0.15323620532442497</v>
+        <v>0.10764931968600255</v>
       </c>
       <c r="U1" t="n">
-        <v>0.1366972248083848</v>
+        <v>0.09599031491838869</v>
       </c>
       <c r="V1" t="n">
-        <v>0.12192719078939458</v>
+        <v>0.08558491178062352</v>
       </c>
       <c r="W1" t="n">
-        <v>0.10873956238843718</v>
+        <v>0.07630109648912647</v>
       </c>
       <c r="X1" t="n">
         <v>0.09696355687077524</v>
@@ -652,73 +652,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.000042171061325</v>
+        <v>-1.357545520652501</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.668894209858972</v>
+        <v>-1.362754780213255</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.4550236248769908</v>
+        <v>-1.3471038975431355</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.360454597352983</v>
+        <v>-1.2156221866019956</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.3610189375346546</v>
+        <v>-1.0144217094621908</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.3527348346916737</v>
+        <v>-0.8202559349206693</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.2313493207932322</v>
+        <v>-0.6622357382221589</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.0326230346783312</v>
+        <v>-0.5419449125785046</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8360284891415071</v>
+        <v>-0.45401356313650487</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.6745636400749652</v>
+        <v>-0.3918575227752192</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5511381448560172</v>
+        <v>-0.34716663111883145</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.46061110955649404</v>
+        <v>-0.3101996591292171</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.39648599660801387</v>
+        <v>-0.27479281452702287</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.35065169215158504</v>
+        <v>-0.2412048150454506</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.31334801311315974</v>
+        <v>-0.21165209321834877</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.2778699833911927</v>
+        <v>-0.18646765563774054</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.24402028209369206</v>
+        <v>-0.16467701259863454</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2140664132261911</v>
+        <v>-0.14554152048484875</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.18853150060365043</v>
+        <v>-0.12872902035743747</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.16648061360884778</v>
+        <v>-0.11395854219725547</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.14712764832585257</v>
+        <v>-0.10095866309488626</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.13012174426212558</v>
+        <v>-0.08950085667932461</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.11518311234694198</v>
+        <v>-0.07939014644555759</v>
       </c>
       <c r="X2" t="n">
         <v>-0.10203723876108349</v>
@@ -732,73 +732,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -825,73 +825,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9833289097771614</v>
+        <v>0.8717419358198131</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9663218437444123</v>
+        <v>0.7929878126043783</v>
       </c>
       <c r="C1" t="n">
-        <v>0.933513465567083</v>
+        <v>0.7082209632571056</v>
       </c>
       <c r="D1" t="n">
-        <v>0.87780449262496</v>
+        <v>0.6323686485851221</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8004250533437329</v>
+        <v>0.5698655113136764</v>
       </c>
       <c r="F1" t="n">
-        <v>0.7154707036884691</v>
+        <v>0.5184189137474464</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6384995414415349</v>
+        <v>0.4751085184809432</v>
       </c>
       <c r="H1" t="n">
-        <v>0.5748711795517445</v>
+        <v>0.4376557713861121</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5225822918691512</v>
+        <v>0.4030521828861976</v>
       </c>
       <c r="J1" t="n">
-        <v>0.4786497373319282</v>
+        <v>0.36700643937921645</v>
       </c>
       <c r="K1" t="n">
-        <v>0.44078126808369056</v>
+        <v>0.3267111327377062</v>
       </c>
       <c r="L1" t="n">
-        <v>0.40608794416268895</v>
+        <v>0.28503558924795636</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3703379431599057</v>
+        <v>0.24813985793811494</v>
       </c>
       <c r="N1" t="n">
-        <v>0.33039677001001055</v>
+        <v>0.21848145910594097</v>
       </c>
       <c r="O1" t="n">
-        <v>0.28858919088053203</v>
+        <v>0.19417500532232695</v>
       </c>
       <c r="P1" t="n">
-        <v>0.25109056825249415</v>
+        <v>0.1728798300885558</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.2208340679517378</v>
+        <v>0.1537566150625116</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19616793714818076</v>
+        <v>0.13675176984600246</v>
       </c>
       <c r="S1" t="n">
-        <v>0.17466311919150135</v>
+        <v>0.12170095419724791</v>
       </c>
       <c r="T1" t="n">
-        <v>0.15535324566689676</v>
+        <v>0.10834529611938588</v>
       </c>
       <c r="U1" t="n">
-        <v>0.1381653404617889</v>
+        <v>0.09647777529536289</v>
       </c>
       <c r="V1" t="n">
-        <v>0.1229533791294179</v>
+        <v>0.08592671597090128</v>
       </c>
       <c r="W1" t="n">
-        <v>0.10945772294885783</v>
+        <v>0.07654099790896993</v>
       </c>
       <c r="X1" t="n">
         <v>0.09746650356447811</v>
@@ -905,73 +905,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.041486856186219</v>
+        <v>-1.2369187649848004</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.698896410923795</v>
+        <v>-1.0815392503426857</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.443912468343512</v>
+        <v>-0.9397936584081059</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.2517572310085225</v>
+        <v>-0.8092349733392484</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.0945035222043702</v>
+        <v>-0.6945588158376308</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.9518695746223707</v>
+        <v>-0.5978268096992735</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.82014522135109</v>
+        <v>-0.5181115144832888</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7039271021989305</v>
+        <v>-0.4541260835630813</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6056308645291262</v>
+        <v>-0.40482819875577036</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5244777729606203</v>
+        <v>-0.3675301488487362</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.45914665251892717</v>
+        <v>-0.3359924673659618</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.40862124740313527</v>
+        <v>-0.3034572222150872</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.37046635298964387</v>
+        <v>-0.26893434873522426</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.33873466794869395</v>
+        <v>-0.2362225905177622</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.3064352574384071</v>
+        <v>-0.20796963395571358</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.2719598522941124</v>
+        <v>-0.18392992990755355</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.23893653362794431</v>
+        <v>-0.16291081383054487</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.21026849808034945</v>
+        <v>-0.1442889745983754</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.18590842367061056</v>
+        <v>-0.12784096543596182</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.1646591489224098</v>
+        <v>-0.11333012912306696</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.1458368588810071</v>
+        <v>-0.10051384677480352</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1292062900948703</v>
+        <v>-0.08918597309461368</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1145352941596835</v>
+        <v>-0.07916723919982915</v>
       </c>
       <c r="X2" t="n">
         <v>-0.1015786984715317</v>
@@ -985,73 +985,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>

--- a/lin_R1_by_R2 (1 by 3)100.xlsx
+++ b/lin_R1_by_R2 (1 by 3)100.xlsx
@@ -226,73 +226,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -479,73 +479,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -732,73 +732,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -985,73 +985,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>

--- a/lin_R1_by_R2 (1 by 3)100.xlsx
+++ b/lin_R1_by_R2 (1 by 3)100.xlsx
@@ -66,242 +66,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8952425311134611</v>
+        <v>0.9998945325528417</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8482595147276366</v>
+        <v>0.9998328613137134</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7882768803050128</v>
+        <v>0.9997351430953606</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7176606392137819</v>
+        <v>0.9995803306848089</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6417795664728592</v>
+        <v>0.9993351214711843</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5673072660551965</v>
+        <v>0.998946872196462</v>
       </c>
       <c r="G1" t="n">
-        <v>0.4995427970259025</v>
+        <v>0.9983324940659396</v>
       </c>
       <c r="H1" t="n">
-        <v>0.44073583850300246</v>
+        <v>0.9973611630227397</v>
       </c>
       <c r="I1" t="n">
-        <v>0.39039938246423933</v>
+        <v>0.9958276877369578</v>
       </c>
       <c r="J1" t="n">
-        <v>0.34682544519638625</v>
+        <v>0.9934121997356218</v>
       </c>
       <c r="K1" t="n">
-        <v>0.3084518450013106</v>
+        <v>0.989620896406111</v>
       </c>
       <c r="L1" t="n">
-        <v>0.2743564595607412</v>
+        <v>0.9837032153521332</v>
       </c>
       <c r="M1" t="n">
-        <v>0.24404715663118437</v>
+        <v>0.9745463910341472</v>
       </c>
       <c r="N1" t="n">
-        <v>0.21713891033583008</v>
+        <v>0.960565800641204</v>
       </c>
       <c r="O1" t="n">
-        <v>0.193249368635337</v>
+        <v>0.9396497987000095</v>
       </c>
       <c r="P1" t="n">
-        <v>0.17202616567203421</v>
+        <v>0.9092877708433738</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.1531623935530383</v>
+        <v>0.8670804436828043</v>
       </c>
       <c r="R1" t="n">
-        <v>0.1363893299200625</v>
+        <v>0.8117763363739352</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12147009519331375</v>
+        <v>0.7445895790676694</v>
       </c>
       <c r="T1" t="n">
-        <v>0.1081957518409495</v>
+        <v>0.6698822479488721</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09638181561502694</v>
+        <v>0.5941475374860267</v>
       </c>
       <c r="V1" t="n">
-        <v>0.08586520738820583</v>
+        <v>0.5234788888795954</v>
       </c>
       <c r="W1" t="n">
-        <v>0.0765016210587196</v>
+        <v>0.4613150957825222</v>
       </c>
       <c r="X1" t="n">
-        <v>0.09736671592620691</v>
+        <v>0.4080327663679842</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08674203726801742</v>
+        <v>0.36218102340272895</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.07728238145174333</v>
+        <v>0.32203566532669836</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.286438002333532</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.25478156720854145</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.2266669045308828</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.20171015266196055</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.179544069484466</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.15984539234411227</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.14233233832234995</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.1267568129735752</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.1129000231872807</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10056886803739</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.08959272022138508</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07982065017181035</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07111902137913403</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.1777140148648273</v>
+        <v>-31.83966405680993</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.0272486059602344</v>
+        <v>-25.295173741289826</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9107360165192567</v>
+        <v>-20.09774248153023</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.814817965800925</v>
+        <v>-15.97058693191739</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.729446641896243</v>
+        <v>-12.693918660774873</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6493918192352908</v>
+        <v>-10.093238455467903</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5739315971017177</v>
+        <v>-8.030041301277203</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.50466961888424</v>
+        <v>-6.394435928399967</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4431173001556561</v>
+        <v>-5.099283725818255</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3895120178563121</v>
+        <v>-4.075540742803598</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3430097787154836</v>
+        <v>-3.2685469387628294</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.30245666735697885</v>
+        <v>-2.635051064600278</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.2669144144494977</v>
+        <v>-2.1407892548580865</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.23571054150263704</v>
+        <v>-1.7584539718584675</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.20830199930217674</v>
+        <v>-1.4659086543872752</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.18420784318673888</v>
+        <v>-1.2445531559251688</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.16300648055028927</v>
+        <v>-1.0778829253804694</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.14433327828163958</v>
+        <v>-0.9505469537582011</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.1278722138401497</v>
+        <v>-0.8484394432389399</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.11334888540998445</v>
+        <v>-0.760068865433892</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.1005248024087388</v>
+        <v>-0.678348017591115</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.0891924481177826</v>
+        <v>-0.6010754499778188</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.07917104167670164</v>
+        <v>-0.5293107447530637</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.10159017230873006</v>
+        <v>-0.46481958869692014</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.09013421659699046</v>
+        <v>-0.4083468150326406</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.08000413488048869</v>
+        <v>-0.35936577621977345</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.3167499163252978</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.27945375648620685</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.24672128620157174</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.21797541696667577</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.1927142082017039</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.1704938858376574</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.15092977388875536</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.13368888834118928</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11848222491086424</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10505869576235614</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.09319991721642042</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.08271572555401346</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.07344032976482025</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -319,242 +436,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0340153469105116</v>
+        <v>1.0000657635767969</v>
       </c>
       <c r="B1" t="n">
-        <v>1.0211843197276484</v>
+        <v>1.000104196927271</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9732291168432353</v>
+        <v>1.0001650623369849</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8747220437420156</v>
+        <v>1.000261408593075</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7377764098902373</v>
+        <v>1.0004138084510583</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6001565097738867</v>
+        <v>1.0006545958893809</v>
       </c>
       <c r="G1" t="n">
-        <v>0.4906366143399514</v>
+        <v>1.0010343348433466</v>
       </c>
       <c r="H1" t="n">
-        <v>0.41391886064612904</v>
+        <v>1.0016314522304792</v>
       </c>
       <c r="I1" t="n">
-        <v>0.36194000849151925</v>
+        <v>1.0025659534789226</v>
       </c>
       <c r="J1" t="n">
-        <v>0.3248526925092053</v>
+        <v>1.004017278046239</v>
       </c>
       <c r="K1" t="n">
-        <v>0.2948631228816016</v>
+        <v>1.0062429179238528</v>
       </c>
       <c r="L1" t="n">
-        <v>0.2671228859420328</v>
+        <v>1.0095839409123057</v>
       </c>
       <c r="M1" t="n">
-        <v>0.24001277228204848</v>
+        <v>1.014415112572618</v>
       </c>
       <c r="N1" t="n">
-        <v>0.21427128501794993</v>
+        <v>1.0209267176120846</v>
       </c>
       <c r="O1" t="n">
-        <v>0.1909715802321867</v>
+        <v>1.028470959500169</v>
       </c>
       <c r="P1" t="n">
-        <v>0.17031110526651191</v>
+        <v>1.0339603718801467</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.15193182190078458</v>
+        <v>1.0288411408179534</v>
       </c>
       <c r="R1" t="n">
-        <v>0.13550663039636376</v>
+        <v>0.9962861774556578</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12083300223558</v>
+        <v>0.9168729774560528</v>
       </c>
       <c r="T1" t="n">
-        <v>0.10773661893017798</v>
+        <v>0.7904248881149929</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09605146042975125</v>
+        <v>0.6484941266985864</v>
       </c>
       <c r="V1" t="n">
-        <v>0.08562776547291868</v>
+        <v>0.5269272884067142</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07633115498931764</v>
+        <v>0.4387255154688319</v>
       </c>
       <c r="X1" t="n">
-        <v>0.09702664153907703</v>
+        <v>0.37883648390153385</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08649758552397246</v>
+        <v>0.3373164154829122</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.0771068653891556</v>
+        <v>0.3054465362046801</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.27723660281254175</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.2498953363040534</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.22349919209061642</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.19922681287389285</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.1776241859055971</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.15845235775982464</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.1413360824992772</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.1260385579398315</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.11238195272813703</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10019594012523259</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.0893245702791129</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07962805746468812</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07098085105754616</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.1128104240095105</v>
+        <v>-31.834481378626986</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.000431489073688</v>
+        <v>-25.28865167059454</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9450436212868851</v>
+        <v>-20.08953673688137</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9135975539195162</v>
+        <v>-15.960266595337199</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8641477485947427</v>
+        <v>-12.680946234323933</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7793249364522488</v>
+        <v>-10.076947218544223</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6740732198986735</v>
+        <v>-8.009611695379757</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5702217985541487</v>
+        <v>-6.3688754983740585</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4803646270605106</v>
+        <v>-5.067420890790667</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.408119767406691</v>
+        <v>-4.036054047048833</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.35200578567415314</v>
+        <v>-3.2200731507595153</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.30800345900288423</v>
+        <v>-2.576454816410705</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.27157557579835345</v>
+        <v>-2.0717415914926174</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.23966556284453364</v>
+        <v>-1.680551738443053</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.21126915337613028</v>
+        <v>-1.384598531081271</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1862845361957615</v>
+        <v>-1.171802746596315</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1644684470282353</v>
+        <v>-1.0340532769377313</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.14537867884363423</v>
+        <v>-0.9604346950020333</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.12861884625757358</v>
+        <v>-0.9252045720493237</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.11388066097349647</v>
+        <v>-0.8863874526386866</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.10090329521790363</v>
+        <v>-0.8141414282602888</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08946164051410348</v>
+        <v>-0.7136502222240376</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.07936236243209728</v>
+        <v>-0.6072312339370352</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.10198016736431093</v>
+        <v>-0.5114197228963075</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.090411608482447</v>
+        <v>-0.4326679505653364</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.08020129447158703</v>
+        <v>-0.37099464289909756</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.3230837050758026</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2843380807488303</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.25097823475637016</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.22131635035171088</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.19508740152476495</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.17215289373427403</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.1521118682783864</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.13453436769484844</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11908477672448643</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10548765496297124</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.09350508997819335</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.08293267139902752</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.07359445739903636</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -572,242 +806,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.3629061631120025</v>
+        <v>1.2668962290593562</v>
       </c>
       <c r="B1" t="n">
-        <v>1.2549947035333964</v>
+        <v>1.2670304235163197</v>
       </c>
       <c r="C1" t="n">
-        <v>1.0184625667022411</v>
+        <v>1.267242993780764</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7518026219012242</v>
+        <v>1.2675796089885811</v>
       </c>
       <c r="E1" t="n">
-        <v>0.5627027733236952</v>
+        <v>1.2681123876013474</v>
       </c>
       <c r="F1" t="n">
-        <v>0.45605550478781964</v>
+        <v>1.2689549659499328</v>
       </c>
       <c r="G1" t="n">
-        <v>0.39905642925128115</v>
+        <v>1.2702857583651705</v>
       </c>
       <c r="H1" t="n">
-        <v>0.36700434570055124</v>
+        <v>1.2723832156149333</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3456347928977829</v>
+        <v>1.2756774955892922</v>
       </c>
       <c r="J1" t="n">
-        <v>0.3257749425989452</v>
+        <v>1.2808210902851322</v>
       </c>
       <c r="K1" t="n">
-        <v>0.30126606107153947</v>
+        <v>1.2887697690189541</v>
       </c>
       <c r="L1" t="n">
-        <v>0.2711131818851773</v>
+        <v>1.3008226838705796</v>
       </c>
       <c r="M1" t="n">
-        <v>0.24010332554256894</v>
+        <v>1.3184265560585435</v>
       </c>
       <c r="N1" t="n">
-        <v>0.2129245952973657</v>
+        <v>1.3420904938968072</v>
       </c>
       <c r="O1" t="n">
-        <v>0.1900428750083351</v>
+        <v>1.3674624738876948</v>
       </c>
       <c r="P1" t="n">
-        <v>0.16992033443457724</v>
+        <v>1.3743640689791643</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.15170744307691703</v>
+        <v>1.310260474845672</v>
       </c>
       <c r="R1" t="n">
-        <v>0.13532946825776218</v>
+        <v>1.1168161861864767</v>
       </c>
       <c r="S1" t="n">
-        <v>0.1207064844118767</v>
+        <v>0.8443039189091364</v>
       </c>
       <c r="T1" t="n">
-        <v>0.10764931968600255</v>
+        <v>0.6212395508374225</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09599031491838869</v>
+        <v>0.487788595974006</v>
       </c>
       <c r="V1" t="n">
-        <v>0.08558491178062352</v>
+        <v>0.4160980860990324</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07630109648912647</v>
+        <v>0.37695537292711945</v>
       </c>
       <c r="X1" t="n">
-        <v>0.09696355687077524</v>
+        <v>0.3528990331220013</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08645337116350514</v>
+        <v>0.3333710786715863</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.07707585589050173</v>
+        <v>0.3110347878135625</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.28263791790174136</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.2512299015701498</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.22236510435706683</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.19805737992118064</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.17708178518441048</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.1581958620710386</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.1411420471185501</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.12589373662678519</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.11228211001852682</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10012626934369954</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.08927572919484754</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07959381489760776</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07095681580804628</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.357545520652501</v>
+        <v>-31.83584275430429</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.362754780213255</v>
+        <v>-25.290369228163676</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.3471038975431355</v>
+        <v>-20.091706373187257</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.2156221866019956</v>
+        <v>-15.963012697938705</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.0144217094621908</v>
+        <v>-12.684432713904766</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8202559349206693</v>
+        <v>-10.081395062066367</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6622357382221589</v>
+        <v>-8.015328430163736</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5419449125785046</v>
+        <v>-6.3763071506877855</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.45401356313650487</v>
+        <v>-5.0772475636631444</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3918575227752192</v>
+        <v>-4.049371891345345</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.34716663111883145</v>
+        <v>-3.2387503335972276</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.3101996591292171</v>
+        <v>-2.603841295804712</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.27479281452702287</v>
+        <v>-2.114091467407268</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2412048150454506</v>
+        <v>-1.7497847471005887</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.21165209321834877</v>
+        <v>-1.5029191154183843</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.18646765563774054</v>
+        <v>-1.3751838600281705</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.16467701259863454</v>
+        <v>-1.3556671091513546</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.14554152048484875</v>
+        <v>-1.364147035105161</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.12872902035743747</v>
+        <v>-1.2769687917024937</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.11395854219725547</v>
+        <v>-1.0907171708921064</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.10095866309488626</v>
+        <v>-0.8881091924679683</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08950085667932461</v>
+        <v>-0.7157902476057311</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.07939014644555759</v>
+        <v>-0.5821098997577737</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.10203723876108349</v>
+        <v>-0.482994834559962</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.09045203177817603</v>
+        <v>-0.41219833873392453</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.08022993385760803</v>
+        <v>-0.3622016409384416</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.32343925303258225</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.28772827123809025</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2531847430699606</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.22198565837650144</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.19528062544662345</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.17235853590783987</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.15229685998364825</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.13466117242294545</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11917296475994643</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10555048725758412</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.09354960920221825</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.08296421158575812</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.07361680036981377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -825,242 +1176,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8717419358198131</v>
+        <v>0.9999772296367002</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7929878126043783</v>
+        <v>0.9999637801816115</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7082209632571056</v>
+        <v>0.9999422660159629</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6323686485851221</v>
+        <v>0.9999076710061965</v>
       </c>
       <c r="E1" t="n">
-        <v>0.5698655113136764</v>
+        <v>0.9998515944707804</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5184189137474464</v>
+        <v>0.9997595951216952</v>
       </c>
       <c r="G1" t="n">
-        <v>0.4751085184809432</v>
+        <v>0.9996059734749155</v>
       </c>
       <c r="H1" t="n">
-        <v>0.4376557713861121</v>
+        <v>0.9993430154017752</v>
       </c>
       <c r="I1" t="n">
-        <v>0.4030521828861976</v>
+        <v>0.9988778810306628</v>
       </c>
       <c r="J1" t="n">
-        <v>0.36700643937921645</v>
+        <v>0.9980215098676647</v>
       </c>
       <c r="K1" t="n">
-        <v>0.3267111327377062</v>
+        <v>0.9963745156417056</v>
       </c>
       <c r="L1" t="n">
-        <v>0.28503558924795636</v>
+        <v>0.9930767533988458</v>
       </c>
       <c r="M1" t="n">
-        <v>0.24813985793811494</v>
+        <v>0.9862927077130872</v>
       </c>
       <c r="N1" t="n">
-        <v>0.21848145910594097</v>
+        <v>0.9723251206102936</v>
       </c>
       <c r="O1" t="n">
-        <v>0.19417500532232695</v>
+        <v>0.944766095319432</v>
       </c>
       <c r="P1" t="n">
-        <v>0.1728798300885558</v>
+        <v>0.895889330434869</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.1537566150625116</v>
+        <v>0.8236326451708879</v>
       </c>
       <c r="R1" t="n">
-        <v>0.13675176984600246</v>
+        <v>0.7389674412550398</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12170095419724791</v>
+        <v>0.6587282464043186</v>
       </c>
       <c r="T1" t="n">
-        <v>0.10834529611938588</v>
+        <v>0.5913965689935393</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09647777529536289</v>
+        <v>0.536265349106986</v>
       </c>
       <c r="V1" t="n">
-        <v>0.08592671597090128</v>
+        <v>0.49024096870152567</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07654099790896993</v>
+        <v>0.4509102402687257</v>
       </c>
       <c r="X1" t="n">
-        <v>0.09746650356447811</v>
+        <v>0.4157076464694546</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08680600202194519</v>
+        <v>0.3807022809975618</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.07732333622402958</v>
+        <v>0.34198933926259567</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.30011780468267085</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.2608754476373457</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.22862014641756417</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.20267100091454285</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.1804479584102952</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.16054446711677184</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.14276680082734328</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.12702778453683228</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.11307571069491801</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10068188253136702</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.08966516799971228</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07986705618431346</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07114870298951183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.2369187649848004</v>
+        <v>-31.83966880617659</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.0815392503426857</v>
+        <v>-25.295183213206748</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9397936584081059</v>
+        <v>-20.097761366842445</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8092349733392484</v>
+        <v>-15.97062456991365</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6945588158376308</v>
+        <v>-12.693993621976825</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5978268096992735</v>
+        <v>-10.09338759114908</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5181115144832888</v>
+        <v>-8.030337501294774</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4541260835630813</v>
+        <v>-6.395022609665074</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.40482819875577036</v>
+        <v>-5.100440667272495</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3675301488487362</v>
+        <v>-4.077806057533521</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3359924673659618</v>
+        <v>-3.272931038027922</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.3034572222150872</v>
+        <v>-2.643372816362229</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.26893434873522426</v>
+        <v>-2.1560765042276824</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2362225905177622</v>
+        <v>-1.785005426960472</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.20796963395571358</v>
+        <v>-1.507797492713444</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.18392992990755355</v>
+        <v>-1.3008364249212419</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.16291081383054487</v>
+        <v>-1.1364709037320018</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1442889745983754</v>
+        <v>-0.9908132346390384</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.12784096543596182</v>
+        <v>-0.8556629208462211</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.11333012912306696</v>
+        <v>-0.734676225024578</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.10051384677480352</v>
+        <v>-0.6313543140221193</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08918597309461368</v>
+        <v>-0.5455522026470633</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.07916723919982915</v>
+        <v>-0.4758943836318706</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.1015786984715317</v>
+        <v>-0.4213583810420036</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.09012743290059286</v>
+        <v>-0.38017542185137526</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.0800001495728623</v>
+        <v>-0.3474237294164813</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.3157668504025013</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2816538323140598</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.247807485032944</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.217814339766323</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.1923650050985616</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.17034688402598105</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.15087647430567572</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.13365291278582878</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11845929665930047</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10504539041215838</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.09319205351256137</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.08271109855323633</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.07343761843810072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
